--- a/db_feed/HQ1-1_12-1.xlsx
+++ b/db_feed/HQ1-1_12-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Documents\GitHub\ofet-db\db_feed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8BA8D70-F9F2-4DDC-AABA-9B8BF297D2F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B824C7-6CB6-4ACF-9D5A-E9722AD1BE58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{F8B411A1-6901-4B9B-966C-09D3D94CB0BB}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{F8B411A1-6901-4B9B-966C-09D3D94CB0BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Legend" sheetId="7" r:id="rId1"/>
@@ -2346,6 +2346,9 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2363,9 +2366,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3327,10 +3327,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="107" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="113"/>
+      <c r="B2" s="107"/>
       <c r="C2" s="8"/>
     </row>
     <row r="3" spans="1:3" ht="15.75">
@@ -3640,7 +3640,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -3997,19 +3997,19 @@
       <c r="B1" s="41"/>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
-      <c r="F1" s="109" t="s">
+      <c r="F1" s="110" t="s">
         <v>197</v>
       </c>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="112"/>
     </row>
     <row r="2" spans="1:9" ht="130.15" customHeight="1">
-      <c r="A2" s="107" t="s">
+      <c r="A2" s="108" t="s">
         <v>193</v>
       </c>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
       <c r="D2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -4838,19 +4838,19 @@
       </c>
       <c r="B1" s="41"/>
       <c r="C1" s="7"/>
-      <c r="F1" s="109" t="s">
+      <c r="F1" s="110" t="s">
         <v>197</v>
       </c>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="112"/>
     </row>
     <row r="2" spans="1:9" ht="127.5" customHeight="1">
-      <c r="A2" s="107" t="s">
+      <c r="A2" s="108" t="s">
         <v>193</v>
       </c>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
@@ -5263,10 +5263,10 @@
       <c r="C1" s="7"/>
     </row>
     <row r="2" spans="1:7" s="10" customFormat="1" ht="60" customHeight="1">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="113" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="112"/>
+      <c r="B2" s="113"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1"/>
     <row r="4" spans="1:7" s="10" customFormat="1" ht="16.899999999999999" customHeight="1">
@@ -5604,11 +5604,11 @@
       <c r="F1" s="7"/>
     </row>
     <row r="2" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378" s="10" customFormat="1" ht="60" customHeight="1">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="113" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
       <c r="D2" s="19"/>
       <c r="E2" s="19"/>
     </row>
@@ -8172,10 +8172,10 @@
       <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:4" s="10" customFormat="1" ht="36" customHeight="1">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="113" t="s">
         <v>365</v>
       </c>
-      <c r="B2" s="112"/>
+      <c r="B2" s="113"/>
     </row>
     <row r="3" spans="1:4" s="10" customFormat="1" ht="16.899999999999999" customHeight="1" thickBot="1">
       <c r="A3" s="19"/>
